--- a/ETFResult.xlsx
+++ b/ETFResult.xlsx
@@ -7500,16 +7500,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7796,8 +7796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" workbookViewId="0">
+      <selection activeCell="BP6" sqref="BP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8292,6 +8292,10 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5">
+        <f>CORREL(B5:B1004,C5:C1004)</f>
+        <v>0.97661100838236681</v>
+      </c>
       <c r="I5">
         <v>137.04626487493499</v>
       </c>
@@ -8301,6 +8305,10 @@
       <c r="K5" t="s">
         <v>8</v>
       </c>
+      <c r="L5">
+        <f>CORREL(I5:I1004,J5:J1004)</f>
+        <v>0.98610221797848652</v>
+      </c>
       <c r="P5">
         <v>125.59119843423299</v>
       </c>
@@ -8310,6 +8318,10 @@
       <c r="R5" t="s">
         <v>8</v>
       </c>
+      <c r="S5">
+        <f>CORREL(P5:P1004,Q5:Q1004)</f>
+        <v>0.93600987564148064</v>
+      </c>
       <c r="W5">
         <v>113.731047973632</v>
       </c>
@@ -8319,6 +8331,10 @@
       <c r="Y5" t="s">
         <v>8</v>
       </c>
+      <c r="Z5">
+        <f>CORREL(W5:W1004,X5:X1004)</f>
+        <v>0.96386038961656939</v>
+      </c>
       <c r="AD5">
         <v>71.700963230132999</v>
       </c>
@@ -8328,6 +8344,10 @@
       <c r="AF5" t="s">
         <v>8</v>
       </c>
+      <c r="AG5">
+        <f>CORREL(AD5:AD1004,AE5:AE1004)</f>
+        <v>0.80756614203485977</v>
+      </c>
       <c r="AK5">
         <v>117.634116059541</v>
       </c>
@@ -8337,6 +8357,10 @@
       <c r="AM5" t="s">
         <v>8</v>
       </c>
+      <c r="AN5">
+        <f>CORREL(AK5:AK1004,AL5:AL1004)</f>
+        <v>0.85082569386353812</v>
+      </c>
       <c r="AR5">
         <v>52.681570338010701</v>
       </c>
@@ -8346,6 +8370,10 @@
       <c r="AT5" t="s">
         <v>8</v>
       </c>
+      <c r="AU5">
+        <f>CORREL(AR5:AR1004,AS5:AS1004)</f>
+        <v>0.92519355130692837</v>
+      </c>
       <c r="AY5">
         <v>192.54478730916901</v>
       </c>
@@ -8355,6 +8383,10 @@
       <c r="BA5" t="s">
         <v>8</v>
       </c>
+      <c r="BB5">
+        <f>CORREL(AY5:AY1004,AZ5:AZ1004)</f>
+        <v>0.92593101241633169</v>
+      </c>
       <c r="BF5">
         <v>113.735117669701</v>
       </c>
@@ -8364,6 +8396,10 @@
       <c r="BH5" t="s">
         <v>8</v>
       </c>
+      <c r="BI5">
+        <f>CORREL(BF5:BF1004,BG5:BG1004)</f>
+        <v>0.90205024875978501</v>
+      </c>
       <c r="BM5">
         <v>111.535426426529</v>
       </c>
@@ -8372,6 +8408,10 @@
       </c>
       <c r="BO5" t="s">
         <v>8</v>
+      </c>
+      <c r="BP5">
+        <f>CORREL(BM5:BM1004,BN5:BN1004)</f>
+        <v>0.95494671247086549</v>
       </c>
       <c r="BS5" s="1">
         <v>41760</v>
